--- a/env6/pretrain.xlsx
+++ b/env6/pretrain.xlsx
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,6 +452,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/env6/pretrain.xlsx
+++ b/env6/pretrain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Buffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>0: Road out before start / 1: Road out after 1 lane change / 2: Road out after 2 lane change / 3: Bad at lane change / 4: Not bad at lane change / 5: Good / 6: Best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various Expert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,20 +373,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="86.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -410,7 +414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10</v>
       </c>
@@ -424,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>100</v>
       </c>
@@ -438,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -452,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>100</v>
       </c>
@@ -464,6 +468,22 @@
       </c>
       <c r="D6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>685</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/env6/pretrain.xlsx
+++ b/env6/pretrain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -475,19 +475,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>685</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/env6/pretrain.xlsx
+++ b/env6/pretrain.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CM_Projects\carmaker_env\env6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E23DB8-D188-45E0-ACD0-F78C1A0ED6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,21 +373,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="86.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -414,7 +415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -428,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -442,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -456,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -470,9 +471,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
